--- a/xlsx/印度_intext.xlsx
+++ b/xlsx/印度_intext.xlsx
@@ -29,7 +29,7 @@
     <t>印度国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_印度</t>
+    <t>体育运动_体育运动_宦官_印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%9B%BD%E5%BE%BD</t>
